--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\48Fracciones Comunes Entrega\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>46794</t>
   </si>
@@ -186,6 +186,9 @@
     <t>Cargo de los(as) servidores(as) públicos(as) que sea(s) responsable(s) de ejercerlo</t>
   </si>
   <si>
+    <t>Secretaria Admiistrativa (UPP)</t>
+  </si>
+  <si>
     <t>Agustín</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
   </si>
   <si>
     <t>Rector</t>
-  </si>
-  <si>
-    <t>Secretaria Admistrativa (UPP)</t>
   </si>
 </sst>
 </file>
@@ -242,11 +242,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -267,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -290,15 +292,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -308,18 +316,30 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,13 +654,14 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -651,11 +672,12 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -736,76 +758,124 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>44013</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>44104</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44114</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44114</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44114</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44114</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44013</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44104</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3">
         <v>44114</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I10" s="3">
         <v>44114</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -816,7 +886,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD94"/>
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,37 +927,37 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>56</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -897,10 +967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="E5" sqref="A5:XFD150"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +982,7 @@
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -926,7 +996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -940,40 +1010,39 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="E4" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -985,7 +1054,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD89"/>
+      <selection activeCell="A3" sqref="A3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,37 +1095,37 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="13" t="s">
         <v>64</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\48Fracciones Comunes Entrega\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\PRESUPUESTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>46794</t>
   </si>
@@ -269,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,33 +292,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -327,19 +317,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +618,7 @@
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -644,40 +627,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -744,138 +725,90 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>2020</v>
       </c>
-      <c r="B8" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3">
-        <v>44114</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44114</v>
+      <c r="H8" s="5">
+        <v>44206</v>
+      </c>
+      <c r="I8" s="5">
+        <v>44206</v>
       </c>
       <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="3">
-        <v>44114</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B10" s="3">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="3">
-        <v>44114</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44114</v>
-      </c>
-      <c r="J10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -886,7 +819,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,36 +860,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -970,7 +903,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,36 +944,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1054,7 +987,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,36 +1028,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\PRESUPUESTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -312,17 +312,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +597,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:J6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +609,7 @@
     <col min="7" max="7" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
@@ -627,38 +618,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -725,18 +716,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -819,7 +810,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,19 +851,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -903,7 +894,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +978,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,19 +1019,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
     </row>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 4TO TRIMESTRE\Fracciones con Cierre Trimestral 4to 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -304,16 +304,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +605,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +642,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -645,11 +653,11 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -683,7 +691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -761,35 +769,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44197</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="I8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="J8" s="4"/>
+      <c r="H8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44298</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -810,7 +818,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD60"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,19 +876,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -894,7 +902,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD67"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,19 +960,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -978,13 +986,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1036,19 +1044,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
     </row>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Entrega SIPOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,10 +305,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +605,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="10.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -769,35 +769,35 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B8" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="I8" s="4">
-        <v>44298</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="H8" s="5">
+        <v>44386</v>
+      </c>
+      <c r="I8" s="5">
+        <v>44386</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -818,7 +818,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,13 +902,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -960,19 +960,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -986,13 +986,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1044,19 +1044,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>65</v>
       </c>
     </row>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Faltantes UPP 2DO TRIMESTRE21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -189,6 +189,18 @@
     <t>Secretaria Admiistrativa (UPP)</t>
   </si>
   <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
     <t>Agustín</t>
   </si>
   <si>
@@ -211,18 +223,6 @@
   </si>
   <si>
     <t>Secretario Administrativo</t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>Rector</t>
   </si>
 </sst>
 </file>
@@ -305,10 +305,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -605,7 +605,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -770,34 +770,34 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>2021</v>
       </c>
-      <c r="B8" s="5">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="5">
-        <v>44386</v>
-      </c>
-      <c r="I8" s="5">
-        <v>44386</v>
-      </c>
-      <c r="J8" s="4"/>
+      <c r="H8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="I8" s="4">
+        <v>44480</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -818,7 +818,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A5" sqref="A5:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,16 +880,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -902,13 +902,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -960,20 +960,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>61</v>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -986,13 +986,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1044,20 +1044,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>65</v>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -189,6 +189,27 @@
     <t>Secretaria Admiistrativa (UPP)</t>
   </si>
   <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Subdirector de Recursos Financieros</t>
+  </si>
+  <si>
+    <t>Jorge Alfredo</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
     <t>Marco Antonio</t>
   </si>
   <si>
@@ -201,28 +222,7 @@
     <t>Rector</t>
   </si>
   <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>Mejía</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Subdirector de Recursos Financieros</t>
-  </si>
-  <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Secretario Administrativo</t>
+    <t>Secretario  Administrativo</t>
   </si>
 </sst>
 </file>
@@ -242,13 +242,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -269,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,11 +290,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -304,22 +315,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -605,7 +619,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,28 +650,28 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -770,32 +784,32 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2021</v>
       </c>
       <c r="B8" s="4">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="4">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="5">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="I8" s="4">
-        <v>44480</v>
+        <v>44571</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -818,7 +832,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD75"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,20 +890,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>61</v>
+      <c r="B4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -902,13 +916,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -960,19 +974,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -986,13 +1000,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD83"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1044,20 +1058,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>57</v>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -186,43 +186,43 @@
     <t>Cargo de los(as) servidores(as) públicos(as) que sea(s) responsable(s) de ejercerlo</t>
   </si>
   <si>
+    <t>Agustín</t>
+  </si>
+  <si>
+    <t>Mejía</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Subdirector de Recursos Financieros</t>
+  </si>
+  <si>
+    <t>Jorge Alfredo</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Secretario Administrativo</t>
+  </si>
+  <si>
+    <t>Marco Antonio</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>Rector</t>
+  </si>
+  <si>
     <t>Secretaria Admiistrativa (UPP)</t>
-  </si>
-  <si>
-    <t>Agustín</t>
-  </si>
-  <si>
-    <t>Mejía</t>
-  </si>
-  <si>
-    <t>Cruz</t>
-  </si>
-  <si>
-    <t>Subdirector de Recursos Financieros</t>
-  </si>
-  <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>Rector</t>
-  </si>
-  <si>
-    <t>Secretario  Administrativo</t>
   </si>
 </sst>
 </file>
@@ -242,11 +242,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -267,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -290,24 +292,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -321,21 +310,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +611,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,33 +632,33 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
@@ -738,18 +730,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -785,31 +777,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
-      </c>
-      <c r="D8" s="3">
+        <v>44651</v>
+      </c>
+      <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="I8" s="4">
-        <v>44571</v>
+        <v>44659</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -832,7 +824,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,20 +882,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -916,13 +908,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -974,20 +966,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1000,13 +992,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1041,36 +1033,36 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>64</v>
       </c>
     </row>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\1er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -186,6 +181,9 @@
     <t>Cargo de los(as) servidores(as) públicos(as) que sea(s) responsable(s) de ejercerlo</t>
   </si>
   <si>
+    <t>Secretaria Admiistrativa (UPP)</t>
+  </si>
+  <si>
     <t>Agustín</t>
   </si>
   <si>
@@ -220,9 +218,6 @@
   </si>
   <si>
     <t>Rector</t>
-  </si>
-  <si>
-    <t>Secretaria Admiistrativa (UPP)</t>
   </si>
 </sst>
 </file>
@@ -269,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -292,11 +287,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -310,24 +314,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,39 +354,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,142 +465,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -632,38 +654,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -730,18 +752,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -780,30 +802,30 @@
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H8" s="4">
-        <v>44659</v>
+        <v>44753</v>
       </c>
       <c r="I8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>44753</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -824,7 +846,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,20 +904,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -908,13 +930,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -966,20 +988,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -992,13 +1014,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1033,37 +1055,37 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87FA6F13-818C-4D40-87D0-B3797516FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -181,7 +187,7 @@
     <t>Cargo de los(as) servidores(as) públicos(as) que sea(s) responsable(s) de ejercerlo</t>
   </si>
   <si>
-    <t>Secretaria Admiistrativa (UPP)</t>
+    <t>Subdirección de Planeación y Presupuesto (UPP)</t>
   </si>
   <si>
     <t>Agustín</t>
@@ -223,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,20 +293,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -314,13 +311,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,39 +350,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,175 +461,151 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,38 +626,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -752,18 +724,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -802,10 +774,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="4">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -820,12 +792,12 @@
         <v>53</v>
       </c>
       <c r="H8" s="4">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="I8" s="4">
-        <v>44753</v>
-      </c>
-      <c r="J8" s="5"/>
+        <v>44844</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -842,11 +814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,17 +898,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -1010,17 +982,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87FA6F13-818C-4D40-87D0-B3797516FCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,20 @@
     <sheet name="Tabla_397515" sheetId="3" r:id="rId3"/>
     <sheet name="Tabla_397516" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -229,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -293,11 +300,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -311,12 +327,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -350,39 +367,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +434,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,151 +478,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,38 +667,38 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -724,18 +765,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -774,10 +815,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="C8" s="4">
-        <v>44834</v>
+        <v>44926</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -792,12 +833,12 @@
         <v>53</v>
       </c>
       <c r="H8" s="4">
-        <v>44844</v>
+        <v>44936</v>
       </c>
       <c r="I8" s="4">
-        <v>44844</v>
-      </c>
-      <c r="J8" s="3"/>
+        <v>44936</v>
+      </c>
+      <c r="J8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -814,11 +855,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A5" sqref="A5:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,19 +917,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -898,17 +939,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -960,19 +1001,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -982,17 +1023,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A5" sqref="A5:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1044,19 +1085,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>65</v>
       </c>
     </row>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -12,20 +12,7 @@
     <sheet name="Tabla_397515" sheetId="3" r:id="rId3"/>
     <sheet name="Tabla_397516" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -209,28 +196,28 @@
     <t>Subdirector de Recursos Financieros</t>
   </si>
   <si>
-    <t>Jorge Alfredo</t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Secretario Administrativo</t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t>Flores</t>
-  </si>
-  <si>
-    <t>González</t>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Meneses</t>
+  </si>
+  <si>
+    <t>Godínez</t>
+  </si>
+  <si>
+    <t>Encargado de Despacho de la Secretaría Administrativa</t>
   </si>
   <si>
     <t>Rector</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Marroquín</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
   </si>
 </sst>
 </file>
@@ -683,7 +670,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -812,13 +799,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -833,10 +820,10 @@
         <v>53</v>
       </c>
       <c r="H8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="I8" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="J8" s="5"/>
     </row>
@@ -859,7 +846,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD39"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,19 +904,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -943,13 +930,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="98.42578125" bestFit="1" customWidth="1"/>
@@ -1001,19 +988,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1027,13 +1014,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD35"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="87.28515625" bestFit="1" customWidth="1"/>
@@ -1085,20 +1072,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f43_bUPPachuca.xlsx
+++ b/xlsx/a69_f43_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Observaciones ITHAI\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B945455B-162D-4851-83A7-7AB8FD24FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="15600" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -223,7 +229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,9 +425,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,6 +477,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -629,11 +669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,10 +842,10 @@
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="4">
-        <v>45016</v>
+        <v>45107</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -842,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -926,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -1010,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
